--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma1F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1046,7 +1046,7 @@
         <v>1.114010473699339</v>
       </c>
       <c r="H15">
-        <v>0.7771099486403529</v>
+        <v>0.777109948640353</v>
       </c>
       <c r="I15">
         <v>0.9326324050533024</v>
@@ -1061,7 +1061,48 @@
         <v>1.028923369097127</v>
       </c>
       <c r="M15">
-        <v>0.9937603055762922</v>
+        <v>0.9937603055762919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.365148640725282</v>
+      </c>
+      <c r="D16">
+        <v>0.3837816257825609</v>
+      </c>
+      <c r="E16">
+        <v>1.051021841029485</v>
+      </c>
+      <c r="F16">
+        <v>1.365148640725282</v>
+      </c>
+      <c r="G16">
+        <v>0.6851569995871816</v>
+      </c>
+      <c r="H16">
+        <v>1.134651966991828</v>
+      </c>
+      <c r="I16">
+        <v>1.133176527350012</v>
+      </c>
+      <c r="J16">
+        <v>0.3837816257825609</v>
+      </c>
+      <c r="K16">
+        <v>0.7174017334060228</v>
+      </c>
+      <c r="L16">
+        <v>1.041275187065652</v>
+      </c>
+      <c r="M16">
+        <v>0.958822933577725</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.365148640725282</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5927680000000006</v>
+        <v>1.365148640725282</v>
       </c>
       <c r="D10">
-        <v>0.5840240000000011</v>
+        <v>0.3837816257825609</v>
       </c>
       <c r="E10">
-        <v>1.309084</v>
+        <v>1.051021841029485</v>
       </c>
       <c r="F10">
-        <v>0.5927680000000006</v>
+        <v>1.365148640725282</v>
       </c>
       <c r="G10">
-        <v>0.3867640000000004</v>
+        <v>0.6851569995871816</v>
       </c>
       <c r="H10">
-        <v>3.362899999999992</v>
+        <v>1.134651966991828</v>
       </c>
       <c r="I10">
-        <v>1.143523999999999</v>
+        <v>1.133176527350012</v>
       </c>
       <c r="J10">
-        <v>0.5840240000000011</v>
+        <v>0.3837816257825609</v>
       </c>
       <c r="K10">
-        <v>0.9465540000000008</v>
+        <v>0.7174017334060228</v>
       </c>
       <c r="L10">
-        <v>0.7696610000000006</v>
+        <v>1.041275187065652</v>
       </c>
       <c r="M10">
-        <v>1.229843999999999</v>
+        <v>0.958822933577725</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.7745066664228107</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.240672328105504</v>
       </c>
       <c r="E11">
-        <v>1.551112499999998</v>
+        <v>1.112867198188798</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>0.7745066664228107</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.8451038369145706</v>
       </c>
       <c r="H11">
-        <v>5.087262499999993</v>
+        <v>1.633819030898185</v>
       </c>
       <c r="I11">
-        <v>1.2698625</v>
+        <v>0.9916895547144543</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.240672328105504</v>
       </c>
       <c r="K11">
-        <v>0.7755562499999992</v>
+        <v>1.176769763147151</v>
       </c>
       <c r="L11">
-        <v>0.4927781249999996</v>
+        <v>0.9756382147849808</v>
       </c>
       <c r="M11">
-        <v>1.354706249999999</v>
+        <v>1.099776435874054</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5507476966400019</v>
+        <v>0.7758502712701368</v>
       </c>
       <c r="D12">
-        <v>0.4137395924992008</v>
+        <v>1.242654337317725</v>
       </c>
       <c r="E12">
-        <v>1.327566295449597</v>
+        <v>1.111644851960693</v>
       </c>
       <c r="F12">
-        <v>0.5507476966400019</v>
+        <v>0.7758502712701368</v>
       </c>
       <c r="G12">
-        <v>0.4147668774912002</v>
+        <v>0.8458514540075714</v>
       </c>
       <c r="H12">
-        <v>3.308730519449605</v>
+        <v>1.631980417083467</v>
       </c>
       <c r="I12">
-        <v>1.155351315660798</v>
+        <v>0.9909160839665972</v>
       </c>
       <c r="J12">
-        <v>0.4137395924992008</v>
+        <v>1.242654337317725</v>
       </c>
       <c r="K12">
-        <v>0.8706529439743989</v>
+        <v>1.177149594639209</v>
       </c>
       <c r="L12">
-        <v>0.7107003203072004</v>
+        <v>0.9764999329546727</v>
       </c>
       <c r="M12">
-        <v>1.195150382865067</v>
+        <v>1.099816235934365</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9792400932042136</v>
+        <v>0.7752097379639964</v>
       </c>
       <c r="D13">
-        <v>0.9942469434978274</v>
+        <v>1.240158767427029</v>
       </c>
       <c r="E13">
-        <v>0.9981685128636005</v>
+        <v>1.113078474216721</v>
       </c>
       <c r="F13">
-        <v>0.9792400932042136</v>
+        <v>0.7752097379639964</v>
       </c>
       <c r="G13">
-        <v>0.9884254592161964</v>
+        <v>0.844993179444269</v>
       </c>
       <c r="H13">
-        <v>1.001347330476415</v>
+        <v>1.631513064206297</v>
       </c>
       <c r="I13">
-        <v>0.9935757308028919</v>
+        <v>0.9916503653497321</v>
       </c>
       <c r="J13">
-        <v>0.9942469434978274</v>
+        <v>1.240158767427029</v>
       </c>
       <c r="K13">
-        <v>0.996207728180714</v>
+        <v>1.176618620821875</v>
       </c>
       <c r="L13">
-        <v>0.9877239106924638</v>
+        <v>0.9759141793929357</v>
       </c>
       <c r="M13">
-        <v>0.9925006783435242</v>
+        <v>1.099433931434674</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.067063351873834</v>
+        <v>0.5927680000000006</v>
       </c>
       <c r="D14">
-        <v>1.07691332059648</v>
+        <v>0.5840240000000011</v>
       </c>
       <c r="E14">
-        <v>0.9326994561095385</v>
+        <v>1.309084</v>
       </c>
       <c r="F14">
-        <v>1.067063351873834</v>
+        <v>0.5927680000000006</v>
       </c>
       <c r="G14">
-        <v>1.02620181448143</v>
+        <v>0.3867640000000004</v>
       </c>
       <c r="H14">
-        <v>0.9658785909203682</v>
+        <v>3.362899999999992</v>
       </c>
       <c r="I14">
-        <v>0.9550665704039035</v>
+        <v>1.143523999999999</v>
       </c>
       <c r="J14">
-        <v>1.07691332059648</v>
+        <v>0.5840240000000011</v>
       </c>
       <c r="K14">
-        <v>1.004806388353009</v>
+        <v>0.9465540000000008</v>
       </c>
       <c r="L14">
-        <v>1.035934870113422</v>
+        <v>0.7696610000000006</v>
       </c>
       <c r="M14">
-        <v>1.003970517397593</v>
+        <v>1.229843999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9768844703237514</v>
+        <v>0.21</v>
       </c>
       <c r="D15">
-        <v>1.233286640664121</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9286378950768857</v>
+        <v>1.551112499999998</v>
       </c>
       <c r="F15">
-        <v>0.9768844703237514</v>
+        <v>0.21</v>
       </c>
       <c r="G15">
-        <v>1.114010473699339</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.777109948640353</v>
+        <v>5.087262499999993</v>
       </c>
       <c r="I15">
-        <v>0.9326324050533024</v>
+        <v>1.2698625</v>
       </c>
       <c r="J15">
-        <v>1.233286640664121</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.080962267870503</v>
+        <v>0.7755562499999992</v>
       </c>
       <c r="L15">
-        <v>1.028923369097127</v>
+        <v>0.4927781249999996</v>
       </c>
       <c r="M15">
-        <v>0.9937603055762919</v>
+        <v>1.354706249999999</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.365148640725282</v>
+        <v>0.5507476966400019</v>
       </c>
       <c r="D16">
-        <v>0.3837816257825609</v>
+        <v>0.4137395924992008</v>
       </c>
       <c r="E16">
-        <v>1.051021841029485</v>
+        <v>1.327566295449597</v>
       </c>
       <c r="F16">
-        <v>1.365148640725282</v>
+        <v>0.5507476966400019</v>
       </c>
       <c r="G16">
-        <v>0.6851569995871816</v>
+        <v>0.4147668774912002</v>
       </c>
       <c r="H16">
-        <v>1.134651966991828</v>
+        <v>3.308730519449605</v>
       </c>
       <c r="I16">
-        <v>1.133176527350012</v>
+        <v>1.155351315660798</v>
       </c>
       <c r="J16">
-        <v>0.3837816257825609</v>
+        <v>0.4137395924992008</v>
       </c>
       <c r="K16">
-        <v>0.7174017334060228</v>
+        <v>0.8706529439743989</v>
       </c>
       <c r="L16">
-        <v>1.041275187065652</v>
+        <v>0.7107003203072004</v>
       </c>
       <c r="M16">
-        <v>0.958822933577725</v>
+        <v>1.195150382865067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9792400932042136</v>
+      </c>
+      <c r="D17">
+        <v>0.9942469434978274</v>
+      </c>
+      <c r="E17">
+        <v>0.9981685128636005</v>
+      </c>
+      <c r="F17">
+        <v>0.9792400932042136</v>
+      </c>
+      <c r="G17">
+        <v>0.9884254592161964</v>
+      </c>
+      <c r="H17">
+        <v>1.001347330476415</v>
+      </c>
+      <c r="I17">
+        <v>0.9935757308028919</v>
+      </c>
+      <c r="J17">
+        <v>0.9942469434978274</v>
+      </c>
+      <c r="K17">
+        <v>0.996207728180714</v>
+      </c>
+      <c r="L17">
+        <v>0.9877239106924638</v>
+      </c>
+      <c r="M17">
+        <v>0.9925006783435242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.067063351873834</v>
+      </c>
+      <c r="D18">
+        <v>1.07691332059648</v>
+      </c>
+      <c r="E18">
+        <v>0.9326994561095385</v>
+      </c>
+      <c r="F18">
+        <v>1.067063351873834</v>
+      </c>
+      <c r="G18">
+        <v>1.02620181448143</v>
+      </c>
+      <c r="H18">
+        <v>0.9658785909203682</v>
+      </c>
+      <c r="I18">
+        <v>0.9550665704039035</v>
+      </c>
+      <c r="J18">
+        <v>1.07691332059648</v>
+      </c>
+      <c r="K18">
+        <v>1.004806388353009</v>
+      </c>
+      <c r="L18">
+        <v>1.035934870113422</v>
+      </c>
+      <c r="M18">
+        <v>1.003970517397593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9768844703237514</v>
+      </c>
+      <c r="D19">
+        <v>1.233286640664121</v>
+      </c>
+      <c r="E19">
+        <v>0.9286378950768857</v>
+      </c>
+      <c r="F19">
+        <v>0.9768844703237514</v>
+      </c>
+      <c r="G19">
+        <v>1.114010473699339</v>
+      </c>
+      <c r="H19">
+        <v>0.777109948640353</v>
+      </c>
+      <c r="I19">
+        <v>0.9326324050533024</v>
+      </c>
+      <c r="J19">
+        <v>1.233286640664121</v>
+      </c>
+      <c r="K19">
+        <v>1.080962267870503</v>
+      </c>
+      <c r="L19">
+        <v>1.028923369097127</v>
+      </c>
+      <c r="M19">
+        <v>0.9937603055762919</v>
       </c>
     </row>
   </sheetData>
